--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873083068831" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730852089589" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730852109528" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730852739544" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730853369868" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912049223886" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291207903396" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912079053903" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912079843876" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912080603914" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873083028837.csv</t>
+          <t>go_stims-16502912048853917.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730830528283.csv</t>
+          <t>GNG_stims-16502912049054203.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730830538287.csv</t>
+          <t>go_stims-16502912049063852.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873083067829.csv</t>
+          <t>GNG_stims-1650291204921393.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873085184953.csv</t>
+          <t>ZB-match_9-16502912055913858.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873084554987.csv</t>
+          <t>OB-16502912065533981.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1649873083828869.csv</t>
+          <t>TB-16502912069513898.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873083536833.csv</t>
+          <t>ZB-match_8-16502912054183848.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873085067955.csv</t>
+          <t>OB-16502912056764178.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730837188587.csv</t>
+          <t>TB-16502912072043881.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730831518645.csv</t>
+          <t>ZB-match_0-1650291205623389.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873084158987.csv</t>
+          <t>OB-16502912058743901.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730847169878.csv</t>
+          <t>TB-16502912078783922.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730852409883.csv</t>
+          <t>MM_stims-16502912079353907.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730852179534.csv</t>
+          <t>ZM_stims-16502912079093893.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730852569878.csv</t>
+          <t>MM_stims-16502912079663868.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730852419524.csv</t>
+          <t>ZM_stims-1650291207936394.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730852729857.csv</t>
+          <t>MM_stims-16502912079823866.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730852579563.csv</t>
+          <t>ZM_stims-16502912079673882.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730852769856.csv</t>
+          <t>vSAT_stims-16502912080463915.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730853209865.csv</t>
+          <t>SAT_stims-16502912079883885.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730852889867.csv</t>
+          <t>vSAT_stims-1650291208029388.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730853049855.csv</t>
+          <t>SAT_stims-16502912080153868.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912049223886" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291207903396" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912079053903" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912079843876" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912080603914" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778363739493" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778385419507" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778385479517" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778386039479" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778386669817" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912048853917.csv</t>
+          <t>go_stims-1650477836339949.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912049054203.csv</t>
+          <t>GNG_stims-16504778363559551.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912049063852.csv</t>
+          <t>go_stims-16504778363579533.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291204921393.csv</t>
+          <t>GNG_stims-16504778363719842.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912055913858.csv</t>
+          <t>OB-16504778368229847.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912065533981.csv</t>
+          <t>ZB-match_0-16504778366379874.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912069513898.csv</t>
+          <t>ZB-match_0-16504778364839501.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502912054183848.csv</t>
+          <t>OB-16504778368799505.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912056764178.csv</t>
+          <t>TB-16504778376589866.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912072043881.csv</t>
+          <t>OB-16504778371569843.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650291205623389.csv</t>
+          <t>TB-165047783736795.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502912058743901.csv</t>
+          <t>TB-1650477838519985.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912078783922.csv</t>
+          <t>ZB-match_7-16504778366589482.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912079353907.csv</t>
+          <t>MM_stims-16504778385729504.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912079093893.csv</t>
+          <t>ZM_stims-1650477838548952.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912079663868.csv</t>
+          <t>MM_stims-16504778385879867.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291207936394.csv</t>
+          <t>ZM_stims-16504778385729504.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912079823866.csv</t>
+          <t>MM_stims-16504778386029851.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912079673882.csv</t>
+          <t>ZM_stims-1650477838588949.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912080463915.csv</t>
+          <t>vSAT_stims-16504778386509857.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912079883885.csv</t>
+          <t>SAT_stims-1650477838618952.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291208029388.csv</t>
+          <t>vSAT_stims-16504778386349485.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912080153868.csv</t>
+          <t>SAT_stims-16504778386079485.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778363739493" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778385419507" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778385479517" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778386039479" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778386669817" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961261482885" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961290847852" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961290847852" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961291487718" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961292127697" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477836339949.csv</t>
+          <t>go_stims-16509961261082761.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778363559551.csv</t>
+          <t>GNG_stims-16509961261322777.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778363579533.csv</t>
+          <t>go_stims-16509961261322777.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778363719842.csv</t>
+          <t>GNG_stims-16509961261482885.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778368229847.csv</t>
+          <t>TB-165099612815644.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778366379874.csv</t>
+          <t>TB-16509961289004436.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778364839501.csv</t>
+          <t>OB-16509961279244144.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778368799505.csv</t>
+          <t>TB-16509961290687296.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778376589866.csv</t>
+          <t>ZB-match_7-165099612637228.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778371569843.csv</t>
+          <t>ZB-match_5-1650996127092271.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-165047783736795.csv</t>
+          <t>OB-165099612773244.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477838519985.csv</t>
+          <t>ZB-match_4-16509961269642725.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778366589482.csv</t>
+          <t>OB-165099612718831.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778385729504.csv</t>
+          <t>MM_stims-16509961291167567.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477838548952.csv</t>
+          <t>ZM_stims-16509961290927253.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778385879867.csv</t>
+          <t>MM_stims-16509961291327245.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778385729504.csv</t>
+          <t>ZM_stims-16509961291167567.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778386029851.csv</t>
+          <t>MM_stims-16509961291487718.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477838588949.csv</t>
+          <t>ZM_stims-16509961291327245.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778386509857.csv</t>
+          <t>vSAT_stims-16509961291807292.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477838618952.csv</t>
+          <t>vSAT_stims-16509961291967747.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778386349485.csv</t>
+          <t>SAT_stims-16509961291647651.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778386079485.csv</t>
+          <t>SAT_stims-16509961291487718.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961261482885" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961290847852" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961290847852" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961291487718" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961292127697" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687241706667" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687273950837" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168727396996" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687274586523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687275351" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961261082761.csv</t>
+          <t>go_stims-1651168724138656.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961261322777.csv</t>
+          <t>GNG_stims-16511687241534302.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961261322777.csv</t>
+          <t>go_stims-16511687241561973.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961261482885.csv</t>
+          <t>GNG_stims-16511687241686034.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-165099612815644.csv</t>
+          <t>OB-16511687259568806.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961289004436.csv</t>
+          <t>OB-16511687266421719.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961279244144.csv</t>
+          <t>ZB-match_0-16511687251179452.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961290687296.csv</t>
+          <t>TB-16511687266934159.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-165099612637228.csv</t>
+          <t>OB-16511687261811182.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650996127092271.csv</t>
+          <t>TB-16511687273830278.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-165099612773244.csv</t>
+          <t>ZB-match_2-16511687259272697.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961269642725.csv</t>
+          <t>TB-16511687270310555.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-165099612718831.csv</t>
+          <t>ZB-match_4-16511687252759387.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961291167567.csv</t>
+          <t>MM_stims-16511687274105837.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961290927253.csv</t>
+          <t>ZM_stims-1651168727398996.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961291327245.csv</t>
+          <t>MM_stims-16511687274417655.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961291167567.csv</t>
+          <t>ZM_stims-16511687274105837.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961291487718.csv</t>
+          <t>MM_stims-16511687274576838.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961291327245.csv</t>
+          <t>ZM_stims-16511687274427304.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961291807292.csv</t>
+          <t>SAT_stims-1651168727488369.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961291967747.csv</t>
+          <t>SAT_stims-16511687274620602.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961291647651.csv</t>
+          <t>vSAT_stims-1651168727503526.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961291487718.csv</t>
+          <t>vSAT_stims-165116872751962.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687241706667" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687273950837" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168727396996" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687274586523" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687275351" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555502636547" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255552429648" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255552431649" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555525426533" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555526206465" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168724138656.csv</t>
+          <t>go_stims-16512555502226522.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687241534302.csv</t>
+          <t>GNG_stims-16512555502456486.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687241561973.csv</t>
+          <t>go_stims-16512555502466486.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687241686034.csv</t>
+          <t>GNG_stims-16512555502616491.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687259568806.csv</t>
+          <t>OB-16512555507876475.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687266421719.csv</t>
+          <t>TB-16512555514716513.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687251179452.csv</t>
+          <t>ZB-match_5-16512555502856488.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687266934159.csv</t>
+          <t>ZB-match_8-16512555504056492.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687261811182.csv</t>
+          <t>TB-1651255552408648.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687273830278.csv</t>
+          <t>OB-16512555513486474.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687259272697.csv</t>
+          <t>OB-1651255550696649.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687270310555.csv</t>
+          <t>ZB-match_9-1651255550667648.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511687252759387.csv</t>
+          <t>TB-16512555519926486.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687274105837.csv</t>
+          <t>MM_stims-1651255552461647.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168727398996.csv</t>
+          <t>ZM_stims-16512555524387236.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687274417655.csv</t>
+          <t>MM_stims-16512555524776485.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687274105837.csv</t>
+          <t>ZM_stims-16512555524636507.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687274576838.csv</t>
+          <t>MM_stims-16512555524936497.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687274427304.csv</t>
+          <t>ZM_stims-165125555247865.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168727488369.csv</t>
+          <t>SAT_stims-16512555525476484.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687274620602.csv</t>
+          <t>vSAT_stims-16512555526056473.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168727503526.csv</t>
+          <t>vSAT_stims-1651255552588648.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-165116872751962.csv</t>
+          <t>SAT_stims-16512555525726469.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_25/participant_25_task_orders.xlsx
+++ b/participants/participant_25/participant_25_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555502636547" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255552429648" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255552431649" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555525426533" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555526206465" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889839356427" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651588983984406" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-1651588987176944" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889871799092" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889872249105" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555502226522.csv</t>
+          <t>vSAT_stims-1651588983903915.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555502456486.csv</t>
+          <t>SAT_stims-16515889838889134.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555502466486.csv</t>
+          <t>SAT_stims-16515889838678377.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555502616491.csv</t>
+          <t>vSAT_stims-16515889839189117.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-1651588983951267.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889839356427.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889839668906.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588983951267.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889839825156.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889839668906.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555507876475.csv</t>
+          <t>ZB-match_5-1651588985046842.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555514716513.csv</t>
+          <t>TB-16515889864990346.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555502856488.csv</t>
+          <t>TB-16515889862940319.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555504056492.csv</t>
+          <t>ZB-match_6-16515889845245242.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255552408648.csv</t>
+          <t>TB-16515889871649098.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16512555513486474.csv</t>
+          <t>OB-16515889855775435.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651255550696649.csv</t>
+          <t>OB-16515889853055665.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_9-1651255550667648.csv</t>
+          <t>ZB-match_6-16515889842974277.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512555519926486.csv</t>
+          <t>OB-16515889858301802.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255552461647.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555524387236.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555524776485.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555524636507.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555524936497.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-165125555247865.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555525476484.csv</t>
+          <t>go_stims-16515889871819103.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555526056473.csv</t>
+          <t>GNG_stims-16515889872079067.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255552588648.csv</t>
+          <t>go_stims-16515889872099085.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555525726469.csv</t>
+          <t>GNG_stims-16515889872239084.csv</t>
         </is>
       </c>
     </row>
